--- a/medicine/Mort/Peine_de_mort_au_Michigan/Peine_de_mort_au_Michigan.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Michigan/Peine_de_mort_au_Michigan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Michigan fut le premier État américain à avoir aboli la peine de mort dans sa législation pénale en 1846, la pendaison ayant été le seul mode d'exécution en vigueur.
-Cependant, une exécution par pendaison pour crime fédéral y eut lieu en 1938, celle de Tony Chebatoris, pour les meurtres d'un chauffeur de camion, ainsi que d'un dentiste qui travaillait dans un bureau au-dessus de la banque fédérale qu'il braquait[1]. En 2002, Marvin Gabrion (en) a été condamné à mort par la Justice fédérale dans cet État pour le meurtre d'un agent de sécurité durant un vol dans un local financier fédéral[2]. 
+Cependant, une exécution par pendaison pour crime fédéral y eut lieu en 1938, celle de Tony Chebatoris, pour les meurtres d'un chauffeur de camion, ainsi que d'un dentiste qui travaillait dans un bureau au-dessus de la banque fédérale qu'il braquait. En 2002, Marvin Gabrion (en) a été condamné à mort par la Justice fédérale dans cet État pour le meurtre d'un agent de sécurité durant un vol dans un local financier fédéral. 
 </t>
         </is>
       </c>
